--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/860772781a299075/UCL/Systemudvikling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{CABE6DFF-1992-1E46-8060-903938CDDD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DF24705-ECAA-7A47-BBD0-EB4E936F9DC5}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{CABE6DFF-1992-1E46-8060-903938CDDD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DE7ABFF-3AAB-804F-B594-BCBE2E36F829}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15560" xr2:uid="{DE1F7B5C-555D-EE41-A586-6BC92518D971}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">KarlaPris </t>
   </si>
   <si>
-    <t>KarlaPris</t>
+    <t>ViggoPris</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
